--- a/现金流量表/605179.xlsx
+++ b/现金流量表/605179.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>004</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -739,61 +739,61 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-08 00:00:00</t>
+          <t>2020-12-15 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-09-30 00:00:00</t>
+          <t>2018-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>130658253.87</v>
+        <v>265948324.95</v>
       </c>
       <c r="P2" t="n">
-        <v>420.9016033653</v>
+        <v>299.4623182198</v>
       </c>
       <c r="Q2" t="n">
-        <v>1555478734.07</v>
+        <v>1979181334.04</v>
       </c>
       <c r="R2" t="n">
-        <v>5010.8085312546</v>
+        <v>2228.5917032206</v>
       </c>
       <c r="S2" t="n">
-        <v>271658417.5</v>
+        <v>292848187.77</v>
       </c>
       <c r="T2" t="n">
-        <v>875.1185639384</v>
+        <v>329.752019354</v>
       </c>
       <c r="U2" t="n">
-        <v>-361641327.53</v>
+        <v>-138977008.98</v>
       </c>
       <c r="V2" t="n">
-        <v>-1164.9888934837</v>
+        <v>-156.4904659438</v>
       </c>
       <c r="W2" t="n">
-        <v>122500.66</v>
+        <v>1917.81</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3946227864</v>
+        <v>0.0021594865</v>
       </c>
       <c r="Y2" t="n">
-        <v>372798693.6</v>
+        <v>148433882.62</v>
       </c>
       <c r="Z2" t="n">
-        <v>1200.9311560587</v>
+        <v>167.1390658321</v>
       </c>
       <c r="AA2" t="n">
-        <v>261913244.2</v>
+        <v>-38405587.74</v>
       </c>
       <c r="AB2" t="n">
-        <v>843.7255294722</v>
+        <v>-43.2453422648</v>
       </c>
       <c r="AC2" t="n">
-        <v>31042469.98</v>
+        <v>88808610.89</v>
       </c>
       <c r="AD2" t="n">
-        <v>-53.7023124636</v>
+        <v>57.2754815426</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>

--- a/现金流量表/605179.xlsx
+++ b/现金流量表/605179.xlsx
@@ -744,56 +744,52 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2018-12-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>265948324.95</v>
+        <v>297962807.98</v>
       </c>
       <c r="P2" t="n">
-        <v>299.4623182198</v>
+        <v>1243.5852653877</v>
       </c>
       <c r="Q2" t="n">
-        <v>1979181334.04</v>
+        <v>2243270706.88</v>
       </c>
       <c r="R2" t="n">
-        <v>2228.5917032206</v>
+        <v>9362.572517906599</v>
       </c>
       <c r="S2" t="n">
-        <v>292848187.77</v>
+        <v>352479236.73</v>
       </c>
       <c r="T2" t="n">
-        <v>329.752019354</v>
+        <v>1471.1164394113</v>
       </c>
       <c r="U2" t="n">
-        <v>-138977008.98</v>
+        <v>-449834818.51</v>
       </c>
       <c r="V2" t="n">
-        <v>-156.4904659438</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1917.81</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.0021594865</v>
-      </c>
+        <v>-1877.4422081394</v>
+      </c>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>148433882.62</v>
+        <v>455102865.55</v>
       </c>
       <c r="Z2" t="n">
-        <v>167.1390658321</v>
+        <v>1899.4290652265</v>
       </c>
       <c r="AA2" t="n">
-        <v>-38405587.74</v>
+        <v>128694633.65</v>
       </c>
       <c r="AB2" t="n">
-        <v>-43.2453422648</v>
+        <v>537.1232444297</v>
       </c>
       <c r="AC2" t="n">
-        <v>88808610.89</v>
+        <v>-23959982.18</v>
       </c>
       <c r="AD2" t="n">
-        <v>57.2754815426</v>
+        <v>-126.9793457412</v>
       </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
